--- a/data/testdata/user.xlsx
+++ b/data/testdata/user.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\cmp\data\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cmp\data\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB96DDA-0F4B-41A7-996D-9698D4805BDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058BD94A-E2FE-4593-AC4C-CCC3D16A526D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>1qaz!QAZ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,18 @@
   </si>
   <si>
     <t>wuzs_test_ui_auto_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>casename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建运营部门用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建域管理员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,62 +446,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{D117F647-8CE6-4906-9F81-BFEDE5A278D9}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{D117F647-8CE6-4906-9F81-BFEDE5A278D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
@@ -498,64 +516,70 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{372861C3-53DF-4393-8336-1D23DCC7FC45}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.375" customWidth="1"/>
-    <col min="2" max="2" width="21.125" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="21.375" customWidth="1"/>
+    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{5BFFEAF0-C194-450D-AB31-F8BBB4C7028B}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{5BFFEAF0-C194-450D-AB31-F8BBB4C7028B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
